--- a/com.sevenmart/src/main/resources/ExcelFiles/Pushnotificationdata.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/Pushnotificationdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparnarajesh\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparnarajesh\git\repository2\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD87E9-70A3-44F0-BC2A-54F1A9A7F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B999869-BA05-4210-AD54-7B48BBCC23DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11505D62-4841-4F9C-9A7E-FFD20EDBFD3E}"/>
   </bookViews>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>xcassd</t>
+    <t>Hello</t>
   </si>
   <si>
-    <t>asdsd</t>
+    <t>HiHello</t>
   </si>
   <si>
-    <t>sdds</t>
+    <t>Worlddddd</t>
   </si>
   <si>
-    <t>wqdwd</t>
+    <t>My Dear</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
